--- a/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E86E8DA-E599-4D9B-A5F4-75B54B44BEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{7E86E8DA-E599-4D9B-A5F4-75B54B44BEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBF39B0F-394D-46E7-BDE8-ECF8F6034223}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
     <sheet name="Notificación" sheetId="5" r:id="rId3"/>
+    <sheet name="TipoNotificacion" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -72,9 +73,6 @@
     <t>Contextro</t>
   </si>
   <si>
-    <t>Fabricante</t>
-  </si>
-  <si>
     <t>Propio</t>
   </si>
   <si>
@@ -87,13 +85,43 @@
     <t>Combinacion única</t>
   </si>
   <si>
-    <t>Producto</t>
-  </si>
-  <si>
     <t>Notificación</t>
   </si>
   <si>
     <t>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</t>
+  </si>
+  <si>
+    <t>TipoNotificacion</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Pago</t>
+  </si>
+  <si>
+    <t>Transaccional</t>
+  </si>
+  <si>
+    <t>IdPago</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene el tipo de notificacion que se va a enviar para la trazabildiad</t>
+  </si>
+  <si>
+    <t>Referenciado</t>
+  </si>
+  <si>
+    <t>Notificacion</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene el id del servicio que vamos a notificar</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene el id del Pago que vamos a notificar</t>
+  </si>
+  <si>
+    <t>IdServicio</t>
   </si>
 </sst>
 </file>
@@ -164,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -183,6 +211,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,22 +239,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>686640</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>29323</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>429513</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>153006</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435323B5-5A53-8557-75BD-68CDE1A05E0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C698122-2573-A5AB-7957-8B0A82AAA14D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -236,8 +270,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6020640" cy="5363323"/>
+          <a:off x="161925" y="0"/>
+          <a:ext cx="6363588" cy="4344006"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -585,7 +619,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="P24" sqref="P23:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,18 +634,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -630,16 +664,58 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -650,65 +726,127 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="5" t="str">
+      <c r="B2" s="1" t="str">
+        <f>TipoNotificacion!C2</f>
+        <v>Servicio</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="str">
         <f>B2&amp;"-"&amp;C2</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Servicio-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D4" si="0">B3&amp;"-"&amp;C3</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B3" s="1" t="str">
+        <f>TipoNotificacion!C3</f>
+        <v>Transaccional</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="E3" s="5" t="str">
+        <f>B3&amp;"-"&amp;D3</f>
+        <v>Transaccional-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8289A3A7-7531-477F-85EF-0168D7D6D3E4}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f>B2</f>
+        <v>Servicio</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f>B3</f>
+        <v>Transaccional</v>
       </c>
     </row>
   </sheetData>

--- a/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{7E86E8DA-E599-4D9B-A5F4-75B54B44BEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBF39B0F-394D-46E7-BDE8-ECF8F6034223}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{7E86E8DA-E599-4D9B-A5F4-75B54B44BEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90D52719-FE5C-4FF6-99E4-DF4D53EA5038}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
@@ -239,22 +239,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>429513</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>153006</xdr:rowOff>
+      <xdr:colOff>315220</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>48243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C698122-2573-A5AB-7957-8B0A82AAA14D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C69C200-EB51-B787-CB41-A29689AEB19F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -270,8 +270,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161925" y="0"/>
-          <a:ext cx="6363588" cy="4344006"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6411220" cy="4429743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -619,7 +619,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P23:P24"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/SpaOnline/ModeloDominio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{7E86E8DA-E599-4D9B-A5F4-75B54B44BEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90D52719-FE5C-4FF6-99E4-DF4D53EA5038}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179B13D6-59D1-4292-B4A5-8BC096340D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
     <sheet name="Notificación" sheetId="5" r:id="rId3"/>
-    <sheet name="TipoNotificacion" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -79,49 +78,22 @@
     <t>Identificador</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
     <t>Combinacion única</t>
   </si>
   <si>
-    <t>Notificación</t>
-  </si>
-  <si>
     <t>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</t>
   </si>
   <si>
-    <t>TipoNotificacion</t>
-  </si>
-  <si>
-    <t>Servicio</t>
-  </si>
-  <si>
-    <t>Pago</t>
-  </si>
-  <si>
-    <t>Transaccional</t>
-  </si>
-  <si>
     <t>IdPago</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene el tipo de notificacion que se va a enviar para la trazabildiad</t>
-  </si>
-  <si>
-    <t>Referenciado</t>
-  </si>
-  <si>
     <t>Notificacion</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene el id del servicio que vamos a notificar</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que contiene el id del Pago que vamos a notificar</t>
-  </si>
-  <si>
     <t>IdServicio</t>
+  </si>
+  <si>
+    <t>Notificaciones</t>
   </si>
 </sst>
 </file>
@@ -244,17 +216,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>315220</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>48243</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>319</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>86003</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C69C200-EB51-B787-CB41-A29689AEB19F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B766D3-31EA-6E78-3BC7-C78F0E550F0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -271,7 +243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6411220" cy="4429743"/>
+          <a:ext cx="2286319" cy="1991003"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -619,7 +591,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,10 +606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +617,7 @@
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -664,58 +636,16 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -726,22 +656,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -749,104 +678,40 @@
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <f>TipoNotificacion!C2</f>
-        <v>Servicio</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
+      <c r="C2" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="str">
-        <f>B2&amp;"-"&amp;C2</f>
-        <v>Servicio-1</v>
+      <c r="D2" s="5" t="str">
+        <f>+A2&amp;"-"&amp;B2&amp;"-"&amp;C2</f>
+        <v>1-1-0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <f>TipoNotificacion!C3</f>
-        <v>Transaccional</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="C3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="str">
-        <f>B3&amp;"-"&amp;D3</f>
-        <v>Transaccional-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8289A3A7-7531-477F-85EF-0168D7D6D3E4}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="str">
-        <f>B2</f>
-        <v>Servicio</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f>B3</f>
-        <v>Transaccional</v>
+      <c r="D3" s="5" t="str">
+        <f>+A3&amp;"-"&amp;B3&amp;"-"&amp;C3</f>
+        <v>2-0-2</v>
       </c>
     </row>
   </sheetData>

--- a/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179B13D6-59D1-4292-B4A5-8BC096340D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{179B13D6-59D1-4292-B4A5-8BC096340D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BD9B37D-0B4C-4CC1-8667-4446D6C7B7EC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -84,16 +84,19 @@
     <t>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</t>
   </si>
   <si>
-    <t>IdPago</t>
-  </si>
-  <si>
     <t>Notificacion</t>
   </si>
   <si>
-    <t>IdServicio</t>
-  </si>
-  <si>
     <t>Notificaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserva de Cita </t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Oferta Shampoo</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -182,12 +185,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,7 +633,7 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -645,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -656,62 +653,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="str">
-        <f>+A2&amp;"-"&amp;B2&amp;"-"&amp;C2</f>
-        <v>1-1-0</v>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f>A2&amp;" "&amp;B2</f>
+        <v xml:space="preserve">1 Reserva de Cita </v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f>+A3&amp;"-"&amp;B3&amp;"-"&amp;C3</f>
-        <v>2-0-2</v>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f>A3&amp;" "&amp;B3</f>
+        <v>2 Oferta Shampoo</v>
       </c>
     </row>
   </sheetData>

--- a/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{179B13D6-59D1-4292-B4A5-8BC096340D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BD9B37D-0B4C-4CC1-8667-4446D6C7B7EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55462929-6FE5-4D0C-A72C-B88CB59DDA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>

--- a/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55462929-6FE5-4D0C-A72C-B88CB59DDA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F125CE3A-06BB-4119-AD41-B6EACBDA03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -96,14 +96,17 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Oferta Shampoo</t>
+    <t xml:space="preserve">Oferta </t>
+  </si>
+  <si>
+    <t>Facturacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +116,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -167,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -186,6 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,10 +665,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,8 +710,23 @@
       </c>
       <c r="C3" s="5" t="str">
         <f>A3&amp;" "&amp;B3</f>
-        <v>2 Oferta Shampoo</v>
-      </c>
+        <v xml:space="preserve">2 Oferta </v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f>A4&amp;" "&amp;B4</f>
+        <v>3 Facturacion</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F125CE3A-06BB-4119-AD41-B6EACBDA03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{F125CE3A-06BB-4119-AD41-B6EACBDA03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6FC9E2A-8B8F-4096-AFD1-897C6001464B}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
     <sheet name="Notificación" sheetId="5" r:id="rId3"/>
+    <sheet name="Cliente" sheetId="8" r:id="rId4"/>
+    <sheet name="ListaNotificacion" sheetId="7" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -90,23 +95,101 @@
     <t>Notificaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">Reserva de Cita </t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t xml:space="preserve">Oferta </t>
-  </si>
-  <si>
-    <t>Facturacion</t>
+    <t>ListaNotificacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto de dominio que contiene la informacion que relaciona las notificaciones a un cliente </t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto de dominio que contiene la informacion de  los clientes </t>
+  </si>
+  <si>
+    <t>Externo</t>
+  </si>
+  <si>
+    <t>Nombre Completo</t>
+  </si>
+  <si>
+    <t>TipoIdentificacion</t>
+  </si>
+  <si>
+    <t>Documento de Identificación</t>
+  </si>
+  <si>
+    <t>Numero Telefonico</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Martina Corrales</t>
+  </si>
+  <si>
+    <t>martina.corrales@gmail.com</t>
+  </si>
+  <si>
+    <t>Ramiro Ramirez</t>
+  </si>
+  <si>
+    <t>ramiro.ramirez@outlook.com</t>
+  </si>
+  <si>
+    <t>Lucrecia Gomez</t>
+  </si>
+  <si>
+    <t>lucrecia.gomez@hotmail.com</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Notificado</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>NotificadoA</t>
+  </si>
+  <si>
+    <t>EsNotificado</t>
+  </si>
+  <si>
+    <t>Reserva</t>
+  </si>
+  <si>
+    <t>Factura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +209,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,10 +266,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -198,8 +290,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -225,17 +320,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>319</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>86003</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>334379</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>48084</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B766D3-31EA-6E78-3BC7-C78F0E550F0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE85A769-AAF4-D573-3D3B-59A4D3EF8ADF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -252,7 +347,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2286319" cy="1991003"/>
+          <a:ext cx="7192379" cy="3286584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -262,6 +357,57 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Modelo de Dominio Anemico"/>
+      <sheetName val="Objetos de dominio"/>
+      <sheetName val="Cliente"/>
+      <sheetName val="Genero"/>
+      <sheetName val="TipoIdentificacion"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Masculino</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Femenino</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>CC</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Pasaporte</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>TI</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,7 +746,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,10 +761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,6 +803,34 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -665,68 +839,349 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="str">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>Cliente!G2</f>
+        <v>martina.corrales@gmail.com</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="str">
         <f>A2&amp;" "&amp;B2</f>
-        <v xml:space="preserve">1 Reserva de Cita </v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1 Reserva</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f>A3&amp;" "&amp;B3</f>
-        <v xml:space="preserve">2 Oferta </v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f t="shared" ref="E3:E6" si="0">A3&amp;" "&amp;B3</f>
+        <v>2 Evento</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>Cliente!G4</f>
+        <v>lucrecia.gomez@hotmail.com</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>3 Factura</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>ListaNotificacion!B2</f>
+        <v>Hombres</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>4 Evento</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>ListaNotificacion!B3</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>5 Evento</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC71BAB-35E9-4719-A153-0A19172943C9}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>+[1]TipoIdentificacion!B7</f>
+        <v>CC</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>[1]Genero!B3</f>
+        <v>Femenino</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3116987523</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>+[1]TipoIdentificacion!B8</f>
+        <v>Pasaporte</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>[1]Genero!B2</f>
+        <v>Masculino</v>
+      </c>
+      <c r="E3" s="1">
+        <v>987654321</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3639874520</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>+[1]TipoIdentificacion!B9</f>
+        <v>TI</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>[1]Genero!B3</f>
+        <v>Femenino</v>
+      </c>
+      <c r="E4" s="1">
+        <v>39789321</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3793175677</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{6AA65C1D-8248-4B31-9720-EE78B6EDD639}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{39211CD0-87BA-463E-9112-92A024E83867}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{FB3AE080-405C-4F39-B30A-923170A68225}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3923CA0-2D39-4C4B-9AAD-AB9E8D7C989B}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="str">
-        <f>A4&amp;" "&amp;B4</f>
-        <v>3 Facturacion</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>Cliente!B3</f>
+        <v>Ramiro Ramirez</v>
+      </c>
+      <c r="D2" s="5" t="str">
+        <f>B2</f>
+        <v>Hombres</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>Cliente!B2&amp;"-"&amp;Cliente!B4</f>
+        <v>Martina Corrales-Lucrecia Gomez</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f t="shared" ref="D3:D4" si="0">B3</f>
+        <v>Mujeres</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>ListaNotificacion!C3&amp;"-"&amp;C2</f>
+        <v>Martina Corrales-Lucrecia Gomez-Ramiro Ramirez</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>General</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{F125CE3A-06BB-4119-AD41-B6EACBDA03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6FC9E2A-8B8F-4096-AFD1-897C6001464B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D178611B-38BB-469E-A090-83F39E378032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
     <sheet name="Notificación" sheetId="5" r:id="rId3"/>
     <sheet name="Cliente" sheetId="8" r:id="rId4"/>
-    <sheet name="ListaNotificacion" sheetId="7" r:id="rId5"/>
+    <sheet name="TipoNotificación" sheetId="9" r:id="rId5"/>
+    <sheet name="ListaNotificacion" sheetId="7" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -113,9 +114,6 @@
     <t xml:space="preserve">Objeto de dominio que contiene la informacion de  los clientes </t>
   </si>
   <si>
-    <t>Externo</t>
-  </si>
-  <si>
     <t>Nombre Completo</t>
   </si>
   <si>
@@ -152,21 +150,12 @@
     <t>Genero</t>
   </si>
   <si>
-    <t>Hombres</t>
-  </si>
-  <si>
-    <t>Mujeres</t>
-  </si>
-  <si>
     <t>Evento</t>
   </si>
   <si>
     <t>General</t>
   </si>
   <si>
-    <t>Notificado</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
@@ -183,6 +172,33 @@
   </si>
   <si>
     <t>Factura</t>
+  </si>
+  <si>
+    <t>Referenciado</t>
+  </si>
+  <si>
+    <t>TipoNotificación</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la información de los tipos de notificaciones que tiene el spa</t>
+  </si>
+  <si>
+    <t>TipoNotificacion</t>
+  </si>
+  <si>
+    <t>Combinación unica</t>
+  </si>
+  <si>
+    <t>Mesaje</t>
+  </si>
+  <si>
+    <t>La reserva ha sido realizada exitosamente</t>
+  </si>
+  <si>
+    <t>Queremos informarte que por el mes de madres hay descuento en limpieza facial</t>
+  </si>
+  <si>
+    <t>Le adjuntamos su factura emitida</t>
   </si>
 </sst>
 </file>
@@ -270,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -291,7 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -320,17 +335,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>334379</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>48084</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>163224</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE85A769-AAF4-D573-3D3B-59A4D3EF8ADF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170543AF-241C-7D27-4408-1AEE283E717C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -347,7 +362,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7192379" cy="3286584"/>
+          <a:ext cx="9307224" cy="4572638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,10 +776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +805,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -804,7 +819,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -817,21 +832,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="Notificación!A1" display="Notificacion" xr:uid="{DA3B1F99-5C10-4291-843F-5063CB65ED05}"/>
+    <hyperlink ref="A3" location="ListaNotificacion!A1" display="ListaNotificacion" xr:uid="{C4E35368-B446-479A-BB96-454F6082D316}"/>
+    <hyperlink ref="A4" location="TipoNotificación!A1" display="TipoNotificación" xr:uid="{5EB8F11E-8349-4309-8CFA-E2C10B754A6D}"/>
+    <hyperlink ref="A5" location="Cliente!A1" display="Cliente" xr:uid="{F3B9065B-E3F4-420C-A502-BD8BFEFACAA3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -839,10 +874,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,127 +885,112 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
+      <c r="B2" s="11" t="str">
+        <f>+TipoNotificación!B2</f>
+        <v>Reserva</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>Cliente!G2</f>
         <v>martina.corrales@gmail.com</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="5" t="str">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5" t="str">
         <f>A2&amp;" "&amp;B2</f>
         <v>1 Reserva</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3:E6" si="0">A3&amp;" "&amp;B3</f>
+      <c r="B3" s="11" t="str">
+        <f>+TipoNotificación!B3</f>
+        <v>Evento</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>+ListaNotificacion!B2</f>
+        <v>General</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f>A3&amp;" "&amp;B3</f>
         <v>2 Evento</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
+      <c r="B4" s="11" t="str">
+        <f>+TipoNotificación!B4</f>
+        <v>Factura</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>Cliente!G4</f>
         <v>lucrecia.gomez@hotmail.com</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="5" t="str">
-        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f>A4&amp;" "&amp;B4</f>
         <v>3 Factura</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f>ListaNotificacion!B2</f>
-        <v>Hombres</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>4 Evento</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>ListaNotificacion!B3</f>
-        <v>Mujeres</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>5 Evento</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="TipoNotificación!A1" display="TipoNotificación!A1" xr:uid="{175AB191-6E16-475B-82F8-42B0C5077BD6}"/>
+    <hyperlink ref="B3" location="TipoNotificación!A1" display="TipoNotificación!A1" xr:uid="{BEBBFA5D-312B-4BE3-8BA9-1EC4B7361622}"/>
+    <hyperlink ref="B4" location="TipoNotificación!A1" display="TipoNotificación!A1" xr:uid="{3F4E85CB-7415-4070-821A-4D692571D9E0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -980,7 +1000,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,22 +1018,22 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>+[1]TipoIdentificacion!B7</f>
@@ -1038,7 +1058,7 @@
         <v>3116987523</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1046,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>+[1]TipoIdentificacion!B8</f>
@@ -1063,7 +1083,7 @@
         <v>3639874520</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1071,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>+[1]TipoIdentificacion!B9</f>
@@ -1088,7 +1108,7 @@
         <v>3793175677</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1108,11 +1128,76 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1B95F0-833F-4A95-8CB7-52753F04217D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f>+B2</f>
+        <v>Reserva</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f t="shared" ref="C3:C4" si="0">+B3</f>
+        <v>Evento</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Factura</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3923CA0-2D39-4C4B-9AAD-AB9E8D7C989B}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,51 +1220,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="str">
-        <f>Cliente!B3</f>
+      <c r="C2" s="2" t="str">
+        <f>+Cliente!B3</f>
         <v>Ramiro Ramirez</v>
       </c>
       <c r="D2" s="5" t="str">
-        <f>B2</f>
-        <v>Hombres</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>Cliente!B2&amp;"-"&amp;Cliente!B4</f>
-        <v>Martina Corrales-Lucrecia Gomez</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D4" si="0">B3</f>
-        <v>Mujeres</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f>ListaNotificacion!C3&amp;"-"&amp;C2</f>
-        <v>Martina Corrales-Lucrecia Gomez-Ramiro Ramirez</v>
-      </c>
-      <c r="D4" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D2" si="0">B2</f>
         <v>General</v>
       </c>
     </row>

--- a/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D178611B-38BB-469E-A090-83F39E378032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDDE3D6-B986-496C-9DBE-7339D13EE5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -307,6 +307,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -760,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -778,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -877,17 +880,17 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -929,11 +932,11 @@
         <v>30</v>
       </c>
       <c r="F2" s="5" t="str">
-        <f>A2&amp;" "&amp;B2</f>
-        <v>1 Reserva</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <f>+B2&amp;"-"&amp;C2&amp;"-"&amp;D2</f>
+        <v>Reserva-martina.corrales@gmail.com-La reserva ha sido realizada exitosamente</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -951,9 +954,9 @@
       <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="5" t="str">
-        <f>A3&amp;" "&amp;B3</f>
-        <v>2 Evento</v>
+      <c r="F3" s="12" t="str">
+        <f t="shared" ref="F3:F4" si="0">+B3&amp;"-"&amp;C3&amp;"-"&amp;D3</f>
+        <v>Evento-General-Queremos informarte que por el mes de madres hay descuento en limpieza facial</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -975,8 +978,8 @@
         <v>31</v>
       </c>
       <c r="F4" s="5" t="str">
-        <f>A4&amp;" "&amp;B4</f>
-        <v>3 Factura</v>
+        <f t="shared" si="0"/>
+        <v>Factura-lucrecia.gomez@hotmail.com-Le adjuntamos su factura emitida</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1000,7 +1003,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,9 +1011,10 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDDE3D6-B986-496C-9DBE-7339D13EE5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02557DC9-7983-4ED7-BA14-BBAA71CA8287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -763,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +880,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02557DC9-7983-4ED7-BA14-BBAA71CA8287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B892EEFD-FEFF-4CCE-BEF6-840F90B3EEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,6 @@
     <t>Combinación unica</t>
   </si>
   <si>
-    <t>Mesaje</t>
-  </si>
-  <si>
     <t>La reserva ha sido realizada exitosamente</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>Le adjuntamos su factura emitida</t>
+  </si>
+  <si>
+    <t>Mensaje</t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>33</v>
@@ -926,7 +926,7 @@
         <v>martina.corrales@gmail.com</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>General</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>30</v>
@@ -972,7 +972,7 @@
         <v>lucrecia.gomez@hotmail.com</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>31</v>

--- a/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B892EEFD-FEFF-4CCE-BEF6-840F90B3EEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47349C2C-E239-44EE-B563-95DECBEBD201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC71BAB-35E9-4719-A153-0A19172943C9}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Notificación - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47349C2C-E239-44EE-B563-95DECBEBD201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7306AE-0AA5-46E2-A56D-97D984CDD958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC71BAB-35E9-4719-A153-0A19172943C9}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1B95F0-833F-4A95-8CB7-52753F04217D}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
